--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il4-Il4ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il4-Il4ra.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.658048</v>
+        <v>0.3454506666666666</v>
       </c>
       <c r="H2">
-        <v>1.974144</v>
+        <v>1.036352</v>
       </c>
       <c r="I2">
-        <v>0.1830904640197834</v>
+        <v>0.1052716477644991</v>
       </c>
       <c r="J2">
-        <v>0.1830904640197835</v>
+        <v>0.1052716477644991</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>49.00494433333333</v>
+        <v>15.67027366666667</v>
       </c>
       <c r="N2">
-        <v>147.014833</v>
+        <v>47.010821</v>
       </c>
       <c r="O2">
-        <v>0.6271308668609277</v>
+        <v>0.3497296100206518</v>
       </c>
       <c r="P2">
-        <v>0.6271308668609277</v>
+        <v>0.3497296100206518</v>
       </c>
       <c r="Q2">
-        <v>32.24760560866133</v>
+        <v>5.413306484999111</v>
       </c>
       <c r="R2">
-        <v>290.228450477952</v>
+        <v>48.719758364992</v>
       </c>
       <c r="S2">
-        <v>0.1148216814146963</v>
+        <v>0.0368166123189097</v>
       </c>
       <c r="T2">
-        <v>0.1148216814146963</v>
+        <v>0.03681661231890971</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.658048</v>
+        <v>0.3454506666666666</v>
       </c>
       <c r="H3">
-        <v>1.974144</v>
+        <v>1.036352</v>
       </c>
       <c r="I3">
-        <v>0.1830904640197834</v>
+        <v>0.1052716477644991</v>
       </c>
       <c r="J3">
-        <v>0.1830904640197835</v>
+        <v>0.1052716477644991</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>78.52943</v>
       </c>
       <c r="O3">
-        <v>0.3349881675544572</v>
+        <v>0.5842073451353695</v>
       </c>
       <c r="P3">
-        <v>0.3349881675544572</v>
+        <v>0.5842073451353695</v>
       </c>
       <c r="Q3">
-        <v>17.22537811754667</v>
+        <v>9.042681315484444</v>
       </c>
       <c r="R3">
-        <v>155.02840305792</v>
+        <v>81.38413183935999</v>
       </c>
       <c r="S3">
-        <v>0.06133313903868253</v>
+        <v>0.0615004698585238</v>
       </c>
       <c r="T3">
-        <v>0.06133313903868254</v>
+        <v>0.0615004698585238</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.658048</v>
+        <v>0.3454506666666666</v>
       </c>
       <c r="H4">
-        <v>1.974144</v>
+        <v>1.036352</v>
       </c>
       <c r="I4">
-        <v>0.1830904640197834</v>
+        <v>0.1052716477644991</v>
       </c>
       <c r="J4">
-        <v>0.1830904640197835</v>
+        <v>0.1052716477644991</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>8.880226</v>
       </c>
       <c r="O4">
-        <v>0.03788096558461519</v>
+        <v>0.06606304484397865</v>
       </c>
       <c r="P4">
-        <v>0.03788096558461519</v>
+        <v>0.06606304484397864</v>
       </c>
       <c r="Q4">
-        <v>1.947871652949333</v>
+        <v>1.022559997283556</v>
       </c>
       <c r="R4">
-        <v>17.530844876544</v>
+        <v>9.203039975552</v>
       </c>
       <c r="S4">
-        <v>0.006935643566404641</v>
+        <v>0.006954565587065631</v>
       </c>
       <c r="T4">
-        <v>0.006935643566404642</v>
+        <v>0.006954565587065631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.346101</v>
       </c>
       <c r="I5">
-        <v>0.3103315587652478</v>
+        <v>0.3398937483175971</v>
       </c>
       <c r="J5">
-        <v>0.3103315587652479</v>
+        <v>0.3398937483175971</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>49.00494433333333</v>
+        <v>15.67027366666667</v>
       </c>
       <c r="N5">
-        <v>147.014833</v>
+        <v>47.010821</v>
       </c>
       <c r="O5">
-        <v>0.6271308668609277</v>
+        <v>0.3497296100206518</v>
       </c>
       <c r="P5">
-        <v>0.6271308668609277</v>
+        <v>0.3497296100206518</v>
       </c>
       <c r="Q5">
-        <v>54.658497746237</v>
+        <v>17.478106128769</v>
       </c>
       <c r="R5">
-        <v>491.926479716133</v>
+        <v>157.302955158921</v>
       </c>
       <c r="S5">
-        <v>0.1946184994627528</v>
+        <v>0.1188709080475708</v>
       </c>
       <c r="T5">
-        <v>0.1946184994627528</v>
+        <v>0.1188709080475708</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.346101</v>
       </c>
       <c r="I6">
-        <v>0.3103315587652478</v>
+        <v>0.3398937483175971</v>
       </c>
       <c r="J6">
-        <v>0.3103315587652479</v>
+        <v>0.3398937483175971</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>78.52943</v>
       </c>
       <c r="O6">
-        <v>0.3349881675544572</v>
+        <v>0.5842073451353695</v>
       </c>
       <c r="P6">
-        <v>0.3349881675544572</v>
+        <v>0.5842073451353695</v>
       </c>
       <c r="Q6">
         <v>29.19637825027</v>
@@ -818,10 +818,10 @@
         <v>262.76740425243</v>
       </c>
       <c r="S6">
-        <v>0.1039574002050887</v>
+        <v>0.1985684243327329</v>
       </c>
       <c r="T6">
-        <v>0.1039574002050887</v>
+        <v>0.1985684243327329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.346101</v>
       </c>
       <c r="I7">
-        <v>0.3103315587652478</v>
+        <v>0.3398937483175971</v>
       </c>
       <c r="J7">
-        <v>0.3103315587652479</v>
+        <v>0.3398937483175971</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>8.880226</v>
       </c>
       <c r="O7">
-        <v>0.03788096558461519</v>
+        <v>0.06606304484397865</v>
       </c>
       <c r="P7">
-        <v>0.03788096558461519</v>
+        <v>0.06606304484397864</v>
       </c>
       <c r="Q7">
         <v>3.301570344314</v>
@@ -880,10 +880,10 @@
         <v>29.714133098826</v>
       </c>
       <c r="S7">
-        <v>0.01175565909740634</v>
+        <v>0.02245441593729341</v>
       </c>
       <c r="T7">
-        <v>0.01175565909740634</v>
+        <v>0.0224544159372934</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.462097</v>
       </c>
       <c r="I8">
-        <v>0.5065779772149687</v>
+        <v>0.5548346039179038</v>
       </c>
       <c r="J8">
-        <v>0.5065779772149687</v>
+        <v>0.5548346039179038</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>49.00494433333333</v>
+        <v>15.67027366666667</v>
       </c>
       <c r="N8">
-        <v>147.014833</v>
+        <v>47.010821</v>
       </c>
       <c r="O8">
-        <v>0.6271308668609277</v>
+        <v>0.3497296100206518</v>
       </c>
       <c r="P8">
-        <v>0.6271308668609277</v>
+        <v>0.3497296100206518</v>
       </c>
       <c r="Q8">
-        <v>89.22325314275567</v>
+        <v>28.53085159462633</v>
       </c>
       <c r="R8">
-        <v>803.0092782848011</v>
+        <v>256.777664351637</v>
       </c>
       <c r="S8">
-        <v>0.3176906859834785</v>
+        <v>0.1940420896541713</v>
       </c>
       <c r="T8">
-        <v>0.3176906859834785</v>
+        <v>0.1940420896541713</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.462097</v>
       </c>
       <c r="I9">
-        <v>0.5065779772149687</v>
+        <v>0.5548346039179038</v>
       </c>
       <c r="J9">
-        <v>0.5065779772149687</v>
+        <v>0.5548346039179038</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>78.52943</v>
       </c>
       <c r="O9">
-        <v>0.3349881675544572</v>
+        <v>0.5842073451353695</v>
       </c>
       <c r="P9">
-        <v>0.3349881675544572</v>
+        <v>0.5842073451353695</v>
       </c>
       <c r="Q9">
         <v>47.65948489052334</v>
@@ -1004,10 +1004,10 @@
         <v>428.93536401471</v>
       </c>
       <c r="S9">
-        <v>0.1696976283106859</v>
+        <v>0.3241384509441129</v>
       </c>
       <c r="T9">
-        <v>0.1696976283106859</v>
+        <v>0.3241384509441129</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.462097</v>
       </c>
       <c r="I10">
-        <v>0.5065779772149687</v>
+        <v>0.5548346039179038</v>
       </c>
       <c r="J10">
-        <v>0.5065779772149687</v>
+        <v>0.5548346039179038</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>8.880226</v>
       </c>
       <c r="O10">
-        <v>0.03788096558461519</v>
+        <v>0.06606304484397865</v>
       </c>
       <c r="P10">
-        <v>0.03788096558461519</v>
+        <v>0.06606304484397864</v>
       </c>
       <c r="Q10">
         <v>5.389406199324667</v>
@@ -1066,10 +1066,10 @@
         <v>48.50465579392201</v>
       </c>
       <c r="S10">
-        <v>0.0191896629208042</v>
+        <v>0.03665406331961962</v>
       </c>
       <c r="T10">
-        <v>0.0191896629208042</v>
+        <v>0.03665406331961961</v>
       </c>
     </row>
   </sheetData>
